--- a/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04605420927234938</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09209766092583049</v>
+        <v>0.09209766092583048</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03509583196893745</v>
@@ -697,7 +697,7 @@
         <v>0.04179459063567541</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07517784401211182</v>
+        <v>0.07517784401211181</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01449492170208988</v>
+        <v>0.01538201738974034</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02247440121312006</v>
+        <v>0.0234707891763299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04319714447631338</v>
+        <v>0.04393469175710792</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02582824674212628</v>
+        <v>0.02819879168774284</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02219032682082035</v>
+        <v>0.0248661443307792</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0246678975838695</v>
+        <v>0.0265325681293534</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07198653125412102</v>
+        <v>0.07056937916570639</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02308478186123787</v>
+        <v>0.02436144465934028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01112945314031448</v>
+        <v>0.0106857067395132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02868221616869469</v>
+        <v>0.02738346337214595</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06194902806925354</v>
+        <v>0.06211404973025435</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04656841509031431</v>
+        <v>0.0504077368966651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01127468027879629</v>
+        <v>0.01118745767610849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06200599684049711</v>
+        <v>0.06120913434991349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08096981887568883</v>
+        <v>0.08146178632513819</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07559979970838002</v>
+        <v>0.07804892112941289</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07214739722167179</v>
+        <v>0.07278243772017626</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07460500705811698</v>
+        <v>0.07473167895712912</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1155365443522287</v>
+        <v>0.1149034567404942</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04952242344128619</v>
+        <v>0.0522430934952033</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03124564463695969</v>
+        <v>0.0334846750947687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05897333933078056</v>
+        <v>0.05857497029978131</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08976620577991812</v>
+        <v>0.08965954222119558</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01430730223205354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06961600562938718</v>
+        <v>0.06961600562938716</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03839645517734955</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01048678240321334</v>
+        <v>0.01011993326309598</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009641778782950298</v>
+        <v>0.009560769736061719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005162902275369719</v>
+        <v>0.005070540655114226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05065485119911602</v>
+        <v>0.04951348845611708</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02158071836341444</v>
+        <v>0.02029664856513941</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02892740142210209</v>
+        <v>0.02987181846456076</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02365496213111139</v>
+        <v>0.02380376936945694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09886802806644159</v>
+        <v>0.09988720241070088</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01848284789322308</v>
+        <v>0.01941825218374683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02079993740394382</v>
+        <v>0.02093685330850276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01743855312614664</v>
+        <v>0.01697651819530836</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07857839552300244</v>
+        <v>0.07881366932654965</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0411807939437475</v>
+        <v>0.04279764592671131</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03882201439663441</v>
+        <v>0.03806925169048762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03212493994479661</v>
+        <v>0.03014422009670562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09175774186918685</v>
+        <v>0.09429922542111074</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06666627124210898</v>
+        <v>0.06429716153100214</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07910444476415233</v>
+        <v>0.08157335442997402</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07170960833554615</v>
+        <v>0.06969899579665781</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1509139048185557</v>
+        <v>0.1536305809697732</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04523460569900518</v>
+        <v>0.04484410931940033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0467303181000417</v>
+        <v>0.04875497738135775</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0456164794349524</v>
+        <v>0.04556899681483886</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1092543662846278</v>
+        <v>0.1130368083413079</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05588761168514392</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1329910868387998</v>
+        <v>0.1329910868387999</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02000389406449403</v>
+        <v>0.01946987579993664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03113872464490092</v>
+        <v>0.03088641881206246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01537070941783126</v>
+        <v>0.01477641340240734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08343434534153724</v>
+        <v>0.08138151179991017</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05010638953448318</v>
+        <v>0.04683120414705692</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03867081069850361</v>
+        <v>0.03821121060378991</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09352589697647395</v>
+        <v>0.09258799264252224</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1588163705398849</v>
+        <v>0.1586465090697971</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03142187215684974</v>
+        <v>0.0318893863320151</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03855437680225152</v>
+        <v>0.03828537929234144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03700101100847123</v>
+        <v>0.03838889086408788</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.11077255994696</v>
+        <v>0.1112163850536263</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05152181725166377</v>
+        <v>0.05049590011483737</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06883710835694584</v>
+        <v>0.06734236086272195</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04275777213121617</v>
+        <v>0.04454413949210341</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1404477169145886</v>
+        <v>0.1355972862338859</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1370384144921997</v>
+        <v>0.1351528313815345</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09779499938446957</v>
+        <v>0.09929217249804684</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2165619357246552</v>
+        <v>0.2120054556672427</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2464548745183694</v>
+        <v>0.2470167990693776</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06199503934852276</v>
+        <v>0.06358974238399435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07005903957115263</v>
+        <v>0.07022967348296683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07349501338771298</v>
+        <v>0.07672597331904371</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.155524399575828</v>
+        <v>0.1590276407555994</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.05089185126537808</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1104431768202295</v>
+        <v>0.1104431768202296</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03390260172970443</v>
+        <v>0.03373229885105567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04701787965856254</v>
+        <v>0.0459701653790331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02807221067360135</v>
+        <v>0.02792179048183735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08832476509494046</v>
+        <v>0.08744378031455032</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04351416570922177</v>
+        <v>0.04359883866581839</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04966354183702401</v>
+        <v>0.04921865384266347</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05209517519808311</v>
+        <v>0.05259520942671976</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1030891346580004</v>
+        <v>0.1009175941528603</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04144887682904243</v>
+        <v>0.04203589926804856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05090420040389534</v>
+        <v>0.05013952096384643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04089564375618056</v>
+        <v>0.04203899190704903</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09965133603185609</v>
+        <v>0.09854518653636003</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05760568145563223</v>
+        <v>0.0563223713616831</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07459769382895645</v>
+        <v>0.07535509743747816</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05098658495189502</v>
+        <v>0.04903005535464914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1215550036344973</v>
+        <v>0.1202689899014226</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.077214821475936</v>
+        <v>0.07811083580988318</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08554557622665301</v>
+        <v>0.08764845737522689</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08846490400310711</v>
+        <v>0.09173214313262491</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1369933406383607</v>
+        <v>0.1356154394145247</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0602479319871951</v>
+        <v>0.06120614791892195</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07461805314832129</v>
+        <v>0.07391993402106528</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06108919327765117</v>
+        <v>0.06261355802351719</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.123254611265442</v>
+        <v>0.1241400945936454</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06250882980058994</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08729304200864856</v>
+        <v>0.08729304200864853</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06753791155193002</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02885022975607215</v>
+        <v>0.02933277347744743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02126248944535643</v>
+        <v>0.02249814816479643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04690671930429116</v>
+        <v>0.04622517291859889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06897354610602692</v>
+        <v>0.06733999097763711</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04821426994277259</v>
+        <v>0.04949077247451044</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1124736618473385</v>
+        <v>0.1137089165405894</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1073762323102281</v>
+        <v>0.1110545625076302</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2283283860748087</v>
+        <v>0.2249951901106122</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04415796075914043</v>
+        <v>0.04609810469709081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07984568126885395</v>
+        <v>0.0807512267364326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08590866255294272</v>
+        <v>0.08495998134789258</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1660976579962201</v>
+        <v>0.1682680627121086</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07154170458944206</v>
+        <v>0.07322145250923459</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05638384283197943</v>
+        <v>0.05688753605245843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08273539652514252</v>
+        <v>0.08460947639943626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1113041985175073</v>
+        <v>0.1093509096856465</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08984391803285631</v>
+        <v>0.09464004865244353</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1625160950043721</v>
+        <v>0.1636857313601176</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.162605603237725</v>
+        <v>0.1650324385342844</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2734067587092123</v>
+        <v>0.2756243091099144</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07891282760595203</v>
+        <v>0.07759747033038454</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1139913233619126</v>
+        <v>0.1131227106726786</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1181066801774887</v>
+        <v>0.1194052851130039</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2000546775360199</v>
+        <v>0.2016417507704474</v>
       </c>
     </row>
     <row r="19">
@@ -1397,31 +1397,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01057355521817843</v>
+        <v>0.01085515888398826</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06743054310031465</v>
+        <v>0.06844977916381639</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1160418942491927</v>
+        <v>0.1145428463185319</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1036463529500771</v>
+        <v>0.1056217594419184</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1603055199434454</v>
+        <v>0.1627047802713746</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05575810781907693</v>
+        <v>0.05398819140635545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09348944251449111</v>
+        <v>0.09299444594560924</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08123323710526853</v>
+        <v>0.08247981900806098</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1290728754346231</v>
+        <v>0.130488064687581</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02265271069399139</v>
+        <v>0.0262191624340714</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05257244155085059</v>
+        <v>0.05689528851677281</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09807507331695156</v>
+        <v>0.1019006160341736</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1573025670121083</v>
+        <v>0.1582488882939111</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1474090062502489</v>
+        <v>0.147337748351445</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2053174441874559</v>
+        <v>0.2069405059410583</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08152099237879119</v>
+        <v>0.0801035395320684</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1282142380420551</v>
+        <v>0.1281046494530041</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1159605113670751</v>
+        <v>0.1173070631578211</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1653520495111983</v>
+        <v>0.1674528987992144</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03529056652467171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08422486722062984</v>
+        <v>0.08422486722062983</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.0670635078777392</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02865793830873106</v>
+        <v>0.028138564785775</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03189723018795117</v>
+        <v>0.03181191487157819</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02976934201337936</v>
+        <v>0.02988937659605398</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07639703594263034</v>
+        <v>0.07521109265464178</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0586236212439648</v>
+        <v>0.05944767727866831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08923748371794286</v>
+        <v>0.0888273230556321</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08727624905571084</v>
+        <v>0.08693064189985986</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1558144089283933</v>
+        <v>0.1550802890093319</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04567519749200364</v>
+        <v>0.04605931685442077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06210371700781524</v>
+        <v>0.06286719489651223</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06125552340893872</v>
+        <v>0.06101285726267231</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1193132473186359</v>
+        <v>0.1193642263887924</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04088285005243465</v>
+        <v>0.04063398384219065</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04499847536893872</v>
+        <v>0.04507937291176139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04196988059728585</v>
+        <v>0.04171580597799829</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09367899584722129</v>
+        <v>0.09314662309730905</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07619194607635081</v>
+        <v>0.07745333516988916</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1097749357882832</v>
+        <v>0.1090072847175016</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.108321398455105</v>
+        <v>0.107725799092107</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1748423006277961</v>
+        <v>0.1744235767414658</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05645760729941059</v>
+        <v>0.05639492904948631</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07510036773347212</v>
+        <v>0.0755291373796593</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07428427444103466</v>
+        <v>0.0732586946298336</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1316761811071883</v>
+        <v>0.133042277730235</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6867</v>
+        <v>7288</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9644</v>
+        <v>10071</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23785</v>
+        <v>24191</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7921</v>
+        <v>8648</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6978</v>
+        <v>7819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8561</v>
+        <v>9208</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35159</v>
+        <v>34467</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18017</v>
+        <v>19013</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8366</v>
+        <v>8032</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22262</v>
+        <v>21254</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>64367</v>
+        <v>64538</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22063</v>
+        <v>23882</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4929</v>
+        <v>4891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26606</v>
+        <v>26264</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44583</v>
+        <v>44854</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23185</v>
+        <v>23936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22687</v>
+        <v>22887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25892</v>
+        <v>25936</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56429</v>
+        <v>56120</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>38650</v>
+        <v>40773</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23486</v>
+        <v>25169</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45772</v>
+        <v>45463</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>93270</v>
+        <v>93159</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3848</v>
+        <v>3713</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4038</v>
+        <v>4004</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1948</v>
+        <v>1913</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24477</v>
+        <v>23926</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8025</v>
+        <v>7548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9778</v>
+        <v>10097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8806</v>
+        <v>8862</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41835</v>
+        <v>42267</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13655</v>
+        <v>14346</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15742</v>
+        <v>15845</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13070</v>
+        <v>12724</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>71220</v>
+        <v>71433</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15111</v>
+        <v>15704</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16259</v>
+        <v>15943</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12118</v>
+        <v>11371</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44338</v>
+        <v>45567</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24791</v>
+        <v>23910</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26738</v>
+        <v>27573</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26696</v>
+        <v>25947</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63858</v>
+        <v>65008</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>33419</v>
+        <v>33131</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35366</v>
+        <v>36898</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>34190</v>
+        <v>34154</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>99023</v>
+        <v>102451</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10850</v>
+        <v>10560</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19599</v>
+        <v>19440</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8022</v>
+        <v>7712</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39349</v>
+        <v>38380</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8407</v>
+        <v>7857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10059</v>
+        <v>9940</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15537</v>
+        <v>15381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29778</v>
+        <v>29746</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22315</v>
+        <v>22647</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>34296</v>
+        <v>34057</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25458</v>
+        <v>26413</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>73011</v>
+        <v>73304</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27945</v>
+        <v>27388</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>43327</v>
+        <v>42386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22316</v>
+        <v>23248</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>66237</v>
+        <v>63949</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22993</v>
+        <v>22676</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25439</v>
+        <v>25829</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35976</v>
+        <v>35219</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46210</v>
+        <v>46315</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44027</v>
+        <v>45160</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>62321</v>
+        <v>62472</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50567</v>
+        <v>52790</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>102508</v>
+        <v>104817</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41983</v>
+        <v>41772</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54494</v>
+        <v>53280</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32273</v>
+        <v>32100</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99970</v>
+        <v>98973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31082</v>
+        <v>31142</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38075</v>
+        <v>37734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43024</v>
+        <v>43437</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88781</v>
+        <v>86911</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>80934</v>
+        <v>82080</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>98025</v>
+        <v>96552</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>80790</v>
+        <v>83049</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>198610</v>
+        <v>196406</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71335</v>
+        <v>69746</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86459</v>
+        <v>87337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58616</v>
+        <v>56367</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>137581</v>
+        <v>136126</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55153</v>
+        <v>55793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>65584</v>
+        <v>67196</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73061</v>
+        <v>75759</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117980</v>
+        <v>116794</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>117641</v>
+        <v>119512</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>143690</v>
+        <v>142345</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>120683</v>
+        <v>123694</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>245653</v>
+        <v>247418</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10114</v>
+        <v>10283</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10857</v>
+        <v>11487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>29115</v>
+        <v>28692</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>39174</v>
+        <v>38247</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27422</v>
+        <v>28148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>85651</v>
+        <v>86592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>79270</v>
+        <v>81985</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>189707</v>
+        <v>186937</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>40595</v>
+        <v>42378</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>101573</v>
+        <v>102725</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>116746</v>
+        <v>115456</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>232340</v>
+        <v>235376</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25079</v>
+        <v>25668</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28789</v>
+        <v>29047</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51354</v>
+        <v>52518</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>63217</v>
+        <v>62107</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>51099</v>
+        <v>53827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>123760</v>
+        <v>124650</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>120043</v>
+        <v>121834</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>227160</v>
+        <v>229002</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>72545</v>
+        <v>71336</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>145010</v>
+        <v>143905</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>160501</v>
+        <v>162266</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>279839</v>
+        <v>282059</v>
       </c>
     </row>
     <row r="24">
@@ -2783,31 +2783,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2508</v>
+        <v>2575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>84205</v>
+        <v>85477</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>128731</v>
+        <v>127068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>112148</v>
+        <v>114285</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>135343</v>
+        <v>137369</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>86256</v>
+        <v>83518</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>128663</v>
+        <v>127982</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>111222</v>
+        <v>112929</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>139593</v>
+        <v>141124</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6046</v>
+        <v>6997</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12472</v>
+        <v>13497</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>122472</v>
+        <v>127249</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>174504</v>
+        <v>175554</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>159500</v>
+        <v>159423</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>173346</v>
+        <v>174716</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>126110</v>
+        <v>123917</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>176453</v>
+        <v>176302</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158770</v>
+        <v>160613</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>178830</v>
+        <v>181102</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>93717</v>
+        <v>92018</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>109149</v>
+        <v>108858</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>100791</v>
+        <v>101197</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>262995</v>
+        <v>258912</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>198038</v>
+        <v>200822</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>316804</v>
+        <v>315348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>308224</v>
+        <v>307004</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>566447</v>
+        <v>563778</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>303663</v>
+        <v>306217</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>432989</v>
+        <v>438312</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>423724</v>
+        <v>422045</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>844484</v>
+        <v>844844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>133695</v>
+        <v>132881</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>153981</v>
+        <v>154258</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142098</v>
+        <v>141238</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>322488</v>
+        <v>320655</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>257386</v>
+        <v>261647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>389715</v>
+        <v>386989</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>382547</v>
+        <v>380444</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>635620</v>
+        <v>634098</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>375348</v>
+        <v>374931</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>523602</v>
+        <v>526592</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>513848</v>
+        <v>506754</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>931987</v>
+        <v>941656</v>
       </c>
     </row>
     <row r="32">
